--- a/data/metadata/Informe-01-010023-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010023-A-TC-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>bi-religioso</t>
   </si>
@@ -103,9 +103,6 @@
     <t>iaest-measure:bi-sin-definir</t>
   </si>
   <si>
-    <t>iaest-measure:municipio-nombre</t>
-  </si>
-  <si>
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
@@ -139,7 +136,7 @@
     <t>iaest-measure:bi-edificios-singulares</t>
   </si>
   <si>
-    <t>iaest-dimension:total-bienes-inmuebles</t>
+    <t>iaest-measure:total-bienes-inmuebles</t>
   </si>
   <si>
     <t>iaest-measure:bi-industrial</t>
@@ -148,7 +145,7 @@
     <t>iaest-measure:bi-ocio-hosteleria</t>
   </si>
   <si>
-    <t>iaest-dimension:bi-espectaculos</t>
+    <t>iaest-measure:bi-espectaculos</t>
   </si>
   <si>
     <t>medida</t>
@@ -160,6 +157,9 @@
     <t>xsd:int</t>
   </si>
   <si>
+    <t>URI-Municipio</t>
+  </si>
+  <si>
     <t>URI-Provincia</t>
   </si>
   <si>
@@ -173,12 +173,6 @@
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-total-bienes-inmuebles.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-bi-espectaculos.xlsx</t>
   </si>
 </sst>
 </file>
@@ -341,60 +335,60 @@
         <v>30</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="Y2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>26</v>
@@ -403,75 +397,75 @@
         <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="N3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
@@ -480,16 +474,16 @@
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>48</v>
@@ -498,10 +492,10 @@
         <v>49</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>50</v>
@@ -513,34 +507,34 @@
         <v>26</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>51</v>
@@ -552,12 +546,6 @@
       </c>
       <c r="M5" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-01-010023-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010023-A-TC-TM-TP.xlsx
@@ -11,165 +11,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
-  <si>
-    <t>bi-religioso</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>ccaa-codigo</t>
-  </si>
-  <si>
-    <t>bi-almacen-estacionamiento</t>
-  </si>
-  <si>
-    <t>municipio-codigo</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>bi-sin-definir</t>
-  </si>
-  <si>
-    <t>municipio-nombre</t>
-  </si>
-  <si>
-    <t>provincia-nombre</t>
-  </si>
-  <si>
-    <t>residencial</t>
-  </si>
-  <si>
-    <t>bi-comercial</t>
-  </si>
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>bi-oficinas</t>
-  </si>
-  <si>
-    <t>bi-cultural</t>
-  </si>
-  <si>
-    <t>bi-deportivo</t>
-  </si>
-  <si>
-    <t>bi-sanidad-benefic</t>
-  </si>
-  <si>
-    <t>bi-suelo-vacante</t>
-  </si>
-  <si>
-    <t>bi-edificios-singulares</t>
-  </si>
-  <si>
-    <t>total-bienes-inmuebles</t>
-  </si>
-  <si>
-    <t>bi-industrial</t>
-  </si>
-  <si>
-    <t>bi-ocio-hosteleria</t>
-  </si>
-  <si>
-    <t>bi-espectaculos</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+  <si>
+    <t>CCAA nombre</t>
+  </si>
+  <si>
+    <t>Residencial</t>
+  </si>
+  <si>
+    <t>Total Bienes inmuebles</t>
+  </si>
+  <si>
+    <t>BI Sanidad, benefic</t>
+  </si>
+  <si>
+    <t>BI Comercial</t>
+  </si>
+  <si>
+    <t>Comarca nombre</t>
+  </si>
+  <si>
+    <t>BI Cultural</t>
+  </si>
+  <si>
+    <t>CCAA código</t>
+  </si>
+  <si>
+    <t>Provincia código</t>
+  </si>
+  <si>
+    <t>Municipio código</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>BI Oficinas</t>
+  </si>
+  <si>
+    <t>BI Religioso</t>
+  </si>
+  <si>
+    <t>BI Almacén, estacionamiento</t>
+  </si>
+  <si>
+    <t>Comarca código</t>
+  </si>
+  <si>
+    <t>BI Edificios singulares</t>
+  </si>
+  <si>
+    <t>BI Ocio, hostelería</t>
+  </si>
+  <si>
+    <t>Provincia nombre</t>
+  </si>
+  <si>
+    <t>Municipio nombre</t>
+  </si>
+  <si>
+    <t>BI Industrial</t>
+  </si>
+  <si>
+    <t>BI Deportivo</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>BI Espectáculos</t>
+  </si>
+  <si>
+    <t>BI Sin definir</t>
+  </si>
+  <si>
+    <t>BI Suelo vacante</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:residencial</t>
+  </si>
+  <si>
+    <t>iaest-measure:total-bienes-inmuebles</t>
+  </si>
+  <si>
+    <t>iaest-measure:bi-sanidad-benefic</t>
+  </si>
+  <si>
+    <t>iaest-measure:bi-comercial</t>
+  </si>
+  <si>
+    <t>iaest-measure:bi-cultural</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refPeriod</t>
+  </si>
+  <si>
+    <t>iaest-measure:bi-oficinas</t>
   </si>
   <si>
     <t>iaest-measure:bi-religioso</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>iaest-measure:bi-almacen-estacionamiento</t>
   </si>
   <si>
+    <t>iaest-measure:bi-edificios-singulares</t>
+  </si>
+  <si>
+    <t>iaest-measure:bi-ocio-hosteleria</t>
+  </si>
+  <si>
+    <t>iaest-measure:bi-industrial</t>
+  </si>
+  <si>
+    <t>iaest-measure:bi-deportivo</t>
+  </si>
+  <si>
     <t>iaest-measure:total</t>
   </si>
   <si>
+    <t>iaest-measure:bi-espectaculos</t>
+  </si>
+  <si>
     <t>iaest-measure:bi-sin-definir</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-measure:residencial</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-comercial</t>
-  </si>
-  <si>
-    <t>iaest-dimension:ccaa-nombre</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refPeriod</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-oficinas</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-cultural</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-deportivo</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-sanidad-benefic</t>
-  </si>
-  <si>
     <t>iaest-measure:bi-suelo-vacante</t>
   </si>
   <si>
-    <t>iaest-measure:bi-edificios-singulares</t>
-  </si>
-  <si>
-    <t>iaest-measure:total-bienes-inmuebles</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-industrial</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-ocio-hosteleria</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-espectaculos</t>
+    <t>dim</t>
   </si>
   <si>
     <t>medida</t>
   </si>
   <si>
-    <t>dim</t>
+    <t>URI-Comunidad</t>
   </si>
   <si>
     <t>xsd:int</t>
   </si>
   <si>
+    <t>URI-comarca</t>
+  </si>
+  <si>
+    <t>xsd:date</t>
+  </si>
+  <si>
+    <t>URI-Provincia</t>
+  </si>
+  <si>
     <t>URI-Municipio</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
-    <t>skos:Concept</t>
-  </si>
-  <si>
-    <t>URI-comarca</t>
-  </si>
-  <si>
-    <t>mapping-ccaa-nombre.xlsx</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -317,25 +314,25 @@
         <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>31</v>
@@ -350,10 +347,10 @@
         <v>34</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>36</v>
@@ -362,75 +359,75 @@
         <v>37</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>45</v>
@@ -439,10 +436,10 @@
         <v>45</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>45</v>
@@ -460,66 +457,66 @@
         <v>45</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="L4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="S4" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>47</v>
@@ -537,15 +534,12 @@
         <v>47</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
-      <c r="L5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-01-010023-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010023-A-TC-TM-TP.xlsx
@@ -1,307 +1,392 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Informe-01-010023-A-TC-TM-TP" sheetId="1" r:id="rId3"/>
+    <sheet name="Informe-05-050314-A-TC-TP" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="77">
   <si>
-    <t>CCAA nombre</t>
-  </si>
-  <si>
-    <t>Residencial</t>
-  </si>
-  <si>
-    <t>Total Bienes inmuebles</t>
-  </si>
-  <si>
-    <t>BI Sanidad, benefic</t>
-  </si>
-  <si>
-    <t>BI Comercial</t>
-  </si>
-  <si>
-    <t>Comarca nombre</t>
-  </si>
-  <si>
-    <t>BI Cultural</t>
-  </si>
-  <si>
-    <t>CCAA código</t>
-  </si>
-  <si>
-    <t>Provincia código</t>
-  </si>
-  <si>
-    <t>Municipio código</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>BI Oficinas</t>
-  </si>
-  <si>
-    <t>BI Religioso</t>
-  </si>
-  <si>
-    <t>BI Almacén, estacionamiento</t>
-  </si>
-  <si>
-    <t>Comarca código</t>
-  </si>
-  <si>
-    <t>BI Edificios singulares</t>
-  </si>
-  <si>
-    <t>BI Ocio, hostelería</t>
-  </si>
-  <si>
-    <t>Provincia nombre</t>
-  </si>
-  <si>
-    <t>Municipio nombre</t>
-  </si>
-  <si>
-    <t>BI Industrial</t>
-  </si>
-  <si>
-    <t>BI Deportivo</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>BI Espectáculos</t>
-  </si>
-  <si>
-    <t>BI Sin definir</t>
-  </si>
-  <si>
-    <t>BI Suelo vacante</t>
-  </si>
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>residencial</t>
-  </si>
-  <si>
-    <t>total-bienes-inmuebles</t>
-  </si>
-  <si>
-    <t>bi-sanidad-benefic</t>
-  </si>
-  <si>
-    <t>bi-comercial</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
-  </si>
-  <si>
-    <t>bi-cultural</t>
-  </si>
-  <si>
-    <t>ccaa-codigo</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>municipio-codigo</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>bi-oficinas</t>
-  </si>
-  <si>
-    <t>bi-religioso</t>
-  </si>
-  <si>
-    <t>bi-almacen-estacionamiento</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>bi-edificios-singulares</t>
-  </si>
-  <si>
-    <t>bi-ocio-hosteleria</t>
-  </si>
-  <si>
-    <t>provincia-nombre</t>
-  </si>
-  <si>
-    <t>municipio-nombre</t>
-  </si>
-  <si>
-    <t>bi-industrial</t>
-  </si>
-  <si>
-    <t>bi-deportivo</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>bi-espectaculos</t>
-  </si>
-  <si>
-    <t>bi-sin-definir</t>
-  </si>
-  <si>
-    <t>bi-suelo-vacante</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-measure:residencial</t>
-  </si>
-  <si>
-    <t>iaest-measure:total-bienes-inmuebles</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-sanidad-benefic</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-comercial</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-cultural</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refPeriod</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-oficinas</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-religioso</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-almacen-estacionamiento</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-edificios-singulares</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-ocio-hosteleria</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-industrial</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-deportivo</t>
-  </si>
-  <si>
-    <t>iaest-measure:total</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-espectaculos</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-sin-definir</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-suelo-vacante</t>
-  </si>
-  <si>
-    <t>dim</t>
-  </si>
-  <si>
-    <t>medida</t>
-  </si>
-  <si>
-    <t>URI-Comunidad</t>
-  </si>
-  <si>
-    <t>xsd:int</t>
-  </si>
-  <si>
-    <t>URI-comarca</t>
-  </si>
-  <si>
-    <t>xsd:date</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
-    <t>URI-Municipio</t>
+    <t xml:space="preserve">CCAA nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Bienes inmuebles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Sanidad, benefic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Comercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comarca nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Cultural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCAA código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provincia código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipio código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Año</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Oficinas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Religioso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Almacén, estacionamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comarca código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Edificios singulares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Ocio, hostelería</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provincia nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipio nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Industrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Deportivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Espectáculos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Sin definir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Suelo vacante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ccaa-nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">residencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total-bienes-inmuebles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi-sanidad-benefic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi-comercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comarca-nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi-cultural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ccaa-codigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provincia-codigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">municipio-codigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi-oficinas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi-religioso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi-almacen-estacionamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comarca-codigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi-edificios-singulares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi-ocio-hosteleria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provincia-nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">municipio-nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi-industrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi-deportivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi-espectaculos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi-sin-definir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi-suelo-vacante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:residencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:total-bienes-inmuebles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:bi-sanidad-benefic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:bi-comercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:bi-cultural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdmx-dimension:refPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:bi-oficinas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:bi-religioso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:bi-almacen-estacionamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:bi-edificios-singulares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:bi-ocio-hosteleria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:bi-industrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:bi-deportivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:bi-espectaculos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:bi-sin-definir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:bi-suelo-vacante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URI-Comunidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xsd:int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URI-comarca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xsd:date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URI-Provincia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URI-Municipio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="66.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="67.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="45.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="45.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="32.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="46.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="57.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="57.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="47.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="58.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="58.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="50.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="38.94"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -378,7 +463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -455,7 +540,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
@@ -532,7 +617,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
@@ -609,7 +694,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -686,7 +771,16 @@
         <v>72</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/data/metadata/Informe-01-010023-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010023-A-TC-TM-TP.xlsx
@@ -1,305 +1,392 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Informe-01-010023-A-TC-TM-TP" sheetId="1" r:id="rId3"/>
+    <sheet name="Informe-05-050314-A-TC-TP" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="77">
   <si>
-    <t>CCAA nombre</t>
-  </si>
-  <si>
-    <t>Residencial</t>
-  </si>
-  <si>
-    <t>Total Bienes inmuebles</t>
-  </si>
-  <si>
-    <t>BI Sanidad, benefic</t>
-  </si>
-  <si>
-    <t>BI Comercial</t>
-  </si>
-  <si>
-    <t>Comarca nombre</t>
-  </si>
-  <si>
-    <t>BI Cultural</t>
-  </si>
-  <si>
-    <t>CCAA código</t>
-  </si>
-  <si>
-    <t>Provincia código</t>
-  </si>
-  <si>
-    <t>Municipio código</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>BI Oficinas</t>
-  </si>
-  <si>
-    <t>BI Religioso</t>
-  </si>
-  <si>
-    <t>BI Almacén, estacionamiento</t>
-  </si>
-  <si>
-    <t>Comarca código</t>
-  </si>
-  <si>
-    <t>BI Edificios singulares</t>
-  </si>
-  <si>
-    <t>BI Ocio, hostelería</t>
-  </si>
-  <si>
-    <t>Provincia nombre</t>
-  </si>
-  <si>
-    <t>Municipio nombre</t>
-  </si>
-  <si>
-    <t>BI Industrial</t>
-  </si>
-  <si>
-    <t>BI Deportivo</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>BI Espectáculos</t>
-  </si>
-  <si>
-    <t>BI Sin definir</t>
-  </si>
-  <si>
-    <t>BI Suelo vacante</t>
-  </si>
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>residencial</t>
-  </si>
-  <si>
-    <t>total-bienes-inmuebles</t>
-  </si>
-  <si>
-    <t>bi-sanidad-benefic</t>
-  </si>
-  <si>
-    <t>bi-comercial</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
-  </si>
-  <si>
-    <t>bi-cultural</t>
-  </si>
-  <si>
-    <t>ccaa-codigo</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>municipio-codigo</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>bi-oficinas</t>
-  </si>
-  <si>
-    <t>bi-religioso</t>
-  </si>
-  <si>
-    <t>bi-almacen-estacionamiento</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>bi-edificios-singulares</t>
-  </si>
-  <si>
-    <t>bi-ocio-hosteleria</t>
-  </si>
-  <si>
-    <t>provincia-nombre</t>
-  </si>
-  <si>
-    <t>municipio-nombre</t>
-  </si>
-  <si>
-    <t>bi-industrial</t>
-  </si>
-  <si>
-    <t>bi-deportivo</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>bi-espectaculos</t>
-  </si>
-  <si>
-    <t>bi-sin-definir</t>
-  </si>
-  <si>
-    <t>bi-suelo-vacante</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-measure:residencial</t>
-  </si>
-  <si>
-    <t>iaest-measure:total-bienes-inmuebles</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-sanidad-benefic</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-comercial</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-cultural</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refPeriod</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-oficinas</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-religioso</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-almacen-estacionamiento</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-edificios-singulares</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-ocio-hosteleria</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-industrial</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-deportivo</t>
-  </si>
-  <si>
-    <t>iaest-measure:total</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-espectaculos</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-sin-definir</t>
-  </si>
-  <si>
-    <t>iaest-measure:bi-suelo-vacante</t>
-  </si>
-  <si>
-    <t>dim</t>
-  </si>
-  <si>
-    <t>medida</t>
-  </si>
-  <si>
-    <t>URI-Comunidad</t>
-  </si>
-  <si>
-    <t>xsd:int</t>
-  </si>
-  <si>
-    <t>URI-comarca</t>
-  </si>
-  <si>
-    <t>xsd:date</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
-    <t>URI-Municipio</t>
+    <t xml:space="preserve">CCAA nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Bienes inmuebles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Sanidad, benefic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Comercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comarca nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Cultural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCAA código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provincia código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipio código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Año</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Oficinas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Religioso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Almacén, estacionamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comarca código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Edificios singulares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Ocio, hostelería</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provincia nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipio nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Industrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Deportivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Espectáculos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Sin definir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BI Suelo vacante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ccaa-nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">residencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total-bienes-inmuebles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi-sanidad-benefic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi-comercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comarca-nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi-cultural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ccaa-codigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provincia-codigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">municipio-codigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi-oficinas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi-religioso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi-almacen-estacionamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comarca-codigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi-edificios-singulares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi-ocio-hosteleria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provincia-nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">municipio-nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi-industrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi-deportivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi-espectaculos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi-sin-definir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi-suelo-vacante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:residencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:total-bienes-inmuebles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:bi-sanidad-benefic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:bi-comercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:bi-cultural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdmx-dimension:refPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:bi-oficinas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:bi-religioso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:bi-almacen-estacionamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:bi-edificios-singulares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:bi-ocio-hosteleria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:bi-industrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:bi-deportivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:bi-espectaculos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:bi-sin-definir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:bi-suelo-vacante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URI-Comunidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xsd:int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URI-comarca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xsd:date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URI-Provincia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URI-Municipio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="66.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="67.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="45.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="45.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="32.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="46.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="57.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="57.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="47.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="58.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="58.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="50.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="38.94"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -376,7 +463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -453,7 +540,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
@@ -530,7 +617,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
@@ -607,7 +694,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -684,7 +771,16 @@
         <v>72</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>